--- a/database/relatorio/PE 90006-2024/ASSUM_PRETO_PRODUCOES_CULTURAIS_E_COMERCIO_DE_MATERIAIS_PARA_USO_MEDICO_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/ASSUM_PRETO_PRODUCOES_CULTURAIS_E_COMERCIO_DE_MATERIAIS_PARA_USO_MEDICO_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 82 - ESPAÇADOR (472673)</t>
+          <t>Grupo N/A - Item 82 - ESPAÇADOR (472673)</t>
         </is>
       </c>
     </row>
